--- a/config/JuiceZombies/Shop.xlsx
+++ b/config/JuiceZombies/Shop.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonthCard|月卡" sheetId="1" r:id="rId1"/>
-    <sheet name="HeroBox|英雄盲盒" sheetId="2" r:id="rId2"/>
+    <sheet name="Gacha|盲盒" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>许天盈</author>
+    <author>YH-01721</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0">
@@ -52,30 +53,22 @@
           </rPr>
           <t xml:space="preserve">
 1-3为常驻盲盒
-后面的编号是现时活动开</t>
+后面的编号是限时活动开</t>
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I4" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>许天盈:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">许天盈:
 表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
-100-80-15=5%的概率开出整个英雄</t>
+100-80-15=5%的概率开出整个英雄
+</t>
         </r>
       </text>
     </comment>
@@ -246,7 +239,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +258,6 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -770,148 +756,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1236,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1428,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>

--- a/config/JuiceZombies/Shop.xlsx
+++ b/config/JuiceZombies/Shop.xlsx
@@ -65,7 +65,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">许天盈:
+          <t xml:space="preserve">许天盈:id;数量;概率(万分比)
 表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
 100-80-15=5%的概率开出整个英雄
 </t>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,9 @@
     <t>ensure_count</t>
   </si>
   <si>
+    <t>array3_int</t>
+  </si>
+  <si>
     <t>十连抽</t>
   </si>
   <si>
@@ -190,7 +193,7 @@
     <t>icon_normal_box</t>
   </si>
   <si>
-    <t>501;80|201;15</t>
+    <t>501;10;8000|201;10;1500|4;1;500</t>
   </si>
   <si>
     <t>advanced_box</t>
@@ -202,7 +205,7 @@
     <t>icon_advanced_box</t>
   </si>
   <si>
-    <t>501;60|201;25</t>
+    <t>501;10;8000|201;10;1500|4;1;501</t>
   </si>
   <si>
     <t>rare_box</t>
@@ -214,7 +217,7 @@
     <t>icon_rare_box</t>
   </si>
   <si>
-    <t>501;40|201;20</t>
+    <t>501;10;8000|201;10;1500|4;1;502</t>
   </si>
   <si>
     <t>limit1_box</t>
@@ -226,7 +229,7 @@
     <t>icon_limit1_box</t>
   </si>
   <si>
-    <t>501;0|201;80</t>
+    <t>501;10;8000|201;10;1500|4;1;503</t>
   </si>
 </sst>
 </file>
@@ -404,12 +407,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1414,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1423,6 +1426,7 @@
     <col min="3" max="3" width="31.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="47.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.4" spans="1:10">
@@ -1483,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>8</v>
@@ -1547,13 +1551,13 @@
         <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" ht="26.4" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1561,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1579,13 +1583,13 @@
         <v>290</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="26.4" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1593,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1611,13 +1615,13 @@
         <v>590</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="26.4" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1625,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1643,13 +1647,13 @@
         <v>890</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="26.4" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1657,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1675,7 +1679,7 @@
         <v>800</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>60</v>

--- a/config/JuiceZombies/Shop.xlsx
+++ b/config/JuiceZombies/Shop.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9ED879-A898-4476-93E2-8638EB8240A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthCard|月卡" sheetId="1" r:id="rId1"/>
@@ -28,13 +34,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>许天盈</author>
     <author>YH-01721</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -235,14 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,150 +263,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -417,8 +273,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,7 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799432355723746"/>
+        <fgColor theme="8" tint="0.79940183721427049"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,194 +299,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -658,251 +334,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -919,61 +353,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1231,26 +621,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="31.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="47.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="3" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1380,7 +770,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1407,29 +797,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="47.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="32.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.4" spans="1:10">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1589,7 +979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1621,7 +1011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1686,8 +1076,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/JuiceZombies/Shop.xlsx
+++ b/config/JuiceZombies/Shop.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9ED879-A898-4476-93E2-8638EB8240A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE470A30-FC8A-4919-99EE-B5754537EDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthCard|月卡" sheetId="1" r:id="rId1"/>
     <sheet name="Gacha|盲盒" sheetId="2" r:id="rId2"/>
+    <sheet name="Pool|随机池" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -71,9 +59,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">许天盈:id;数量;概率(万分比)
-表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
-100-80-15=5%的概率开出整个英雄
+          <t xml:space="preserve">许天盈:池子id;概率(万分比)
 </t>
         </r>
       </text>
@@ -83,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -175,74 +161,105 @@
     <t>price2</t>
   </si>
   <si>
+    <t>ensure_count</t>
+  </si>
+  <si>
+    <t>array3_int</t>
+  </si>
+  <si>
+    <t>保底数</t>
+  </si>
+  <si>
+    <t>normal_box</t>
+  </si>
+  <si>
+    <t>normal_box_desc</t>
+  </si>
+  <si>
+    <t>icon_normal_box</t>
+  </si>
+  <si>
+    <t>advanced_box</t>
+  </si>
+  <si>
+    <t>advanced_box_desc</t>
+  </si>
+  <si>
+    <t>icon_advanced_box</t>
+  </si>
+  <si>
+    <t>rare_box</t>
+  </si>
+  <si>
+    <t>rare_box_desc</t>
+  </si>
+  <si>
+    <t>icon_rare_box</t>
+  </si>
+  <si>
+    <t>limit1_box</t>
+  </si>
+  <si>
+    <t>limit1_box_desc</t>
+  </si>
+  <si>
+    <t>icon_limit1_box</t>
+  </si>
+  <si>
+    <t>pool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连抽随机池</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;10;8000|201;10;1500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000;1;500|10001;1;500|10002;1;500|10003;1;500|10004;1;500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例概率池</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>power</t>
-  </si>
-  <si>
-    <t>ensure_count</t>
-  </si>
-  <si>
-    <t>array3_int</t>
-  </si>
-  <si>
-    <t>十连抽</t>
-  </si>
-  <si>
-    <t>保底数</t>
-  </si>
-  <si>
-    <t>normal_box</t>
-  </si>
-  <si>
-    <t>normal_box_desc</t>
-  </si>
-  <si>
-    <t>icon_normal_box</t>
-  </si>
-  <si>
-    <t>501;10;8000|201;10;1500|4;1;500</t>
-  </si>
-  <si>
-    <t>advanced_box</t>
-  </si>
-  <si>
-    <t>advanced_box_desc</t>
-  </si>
-  <si>
-    <t>icon_advanced_box</t>
-  </si>
-  <si>
-    <t>501;10;8000|201;10;1500|4;1;501</t>
-  </si>
-  <si>
-    <t>rare_box</t>
-  </si>
-  <si>
-    <t>rare_box_desc</t>
-  </si>
-  <si>
-    <t>icon_rare_box</t>
-  </si>
-  <si>
-    <t>501;10;8000|201;10;1500|4;1;502</t>
-  </si>
-  <si>
-    <t>limit1_box</t>
-  </si>
-  <si>
-    <t>limit1_box_desc</t>
-  </si>
-  <si>
-    <t>icon_limit1_box</t>
-  </si>
-  <si>
-    <t>501;10;8000|201;10;1500|4;1;503</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;9500|2001;500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;9500|2001;501</t>
+  </si>
+  <si>
+    <t>1001;9500|2001;502</t>
+  </si>
+  <si>
+    <t>1001;9500|2001;503</t>
+  </si>
+  <si>
+    <t>array2_int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure_pool_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底池子id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +295,35 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +397,18 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,10 +874,10 @@
     <col min="4" max="4" width="47.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="9" max="9" width="32.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="10" max="11" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,20 +896,23 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,20 +931,23 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,20 +966,23 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -940,138 +1007,153 @@
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="G5" s="6">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
+        <v>290</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>290</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="G6" s="6">
+        <v>60</v>
+      </c>
+      <c r="H6" s="6">
+        <v>590</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>90</v>
+      </c>
+      <c r="H7" s="6">
+        <v>890</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K7" s="6">
         <v>60</v>
       </c>
-      <c r="H6">
-        <v>590</v>
-      </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="H7">
-        <v>890</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>-1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>88</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K8" s="6">
         <v>60</v>
       </c>
     </row>
@@ -1080,4 +1162,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0BC9C0-D8F4-4188-8212-DA1AD01F09FA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/JuiceZombies/Shop.xlsx
+++ b/config/JuiceZombies/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE470A30-FC8A-4919-99EE-B5754537EDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03120DBA-9E9A-4713-817B-248943AC221D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -234,15 +234,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1001;9500|2001;501</t>
-  </si>
-  <si>
-    <t>1001;9500|2001;502</t>
-  </si>
-  <si>
-    <t>1001;9500|2001;503</t>
-  </si>
-  <si>
     <t>array2_int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -252,6 +243,10 @@
   </si>
   <si>
     <t>保底池子id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;10000|2001;100</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +860,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -906,7 +901,7 @@
         <v>45</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
@@ -938,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
@@ -1011,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>32</v>
@@ -1042,8 +1037,8 @@
       <c r="H5" s="6">
         <v>290</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>51</v>
+      <c r="I5" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J5" s="6">
         <v>2001</v>
@@ -1077,8 +1072,8 @@
       <c r="H6" s="6">
         <v>590</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>52</v>
+      <c r="I6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="J6" s="6">
         <v>2001</v>
@@ -1112,8 +1107,8 @@
       <c r="H7" s="6">
         <v>890</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>53</v>
+      <c r="I7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="J7" s="6">
         <v>2001</v>
@@ -1147,8 +1142,8 @@
       <c r="H8" s="6">
         <v>800</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>54</v>
+      <c r="I8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="J8" s="6">
         <v>2001</v>
@@ -1169,7 +1164,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
